--- a/Input/Pacific_Cross/benefits.xlsx
+++ b/Input/Pacific_Cross/benefits.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">#REF!</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="151">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -71,22 +72,22 @@
     <t xml:space="preserve">Out-patient (Consultations, Lab &amp; Diagnostics, Pharmacy, Physiotherapy)</t>
   </si>
   <si>
-    <t xml:space="preserve">Out-patient_benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Consultations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Specialists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out-patient_Medicines</t>
+    <t xml:space="preserve">Out-patient benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Consultations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Specialists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient Medicines</t>
   </si>
   <si>
     <t xml:space="preserve">Vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Scans_Diagnostic_Tests</t>
+    <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
   </si>
   <si>
     <t xml:space="preserve">Physiotherapy</t>
@@ -295,7 +296,7 @@
     <t xml:space="preserve">pacific_cross</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-05-01</t>
+    <t xml:space="preserve">2024-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">Thailand</t>
@@ -307,7 +308,7 @@
     <t xml:space="preserve">THB</t>
   </si>
   <si>
-    <t xml:space="preserve">TBH 20,000 deductible/</t>
+    <t xml:space="preserve">NIL deductible/</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
@@ -335,7 +336,7 @@
     <t xml:space="preserve">Personal Accident covered up to TBH 500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">TBH 40,000 deductible/</t>
+    <t xml:space="preserve">THB 20,000 deductible/</t>
   </si>
   <si>
     <t xml:space="preserve">Maxima</t>
@@ -363,7 +364,7 @@
     <t xml:space="preserve">Personal Accident covered up to TBH 200,000</t>
   </si>
   <si>
-    <t xml:space="preserve">TBH 100,000 deductible/</t>
+    <t xml:space="preserve">THB 40,000 deductible/</t>
   </si>
   <si>
     <t xml:space="preserve">Maxima Plus</t>
@@ -382,7 +383,7 @@
     <t xml:space="preserve">IP covered up to TBH 75,000/ TBH 300,000 lifetime</t>
   </si>
   <si>
-    <t xml:space="preserve">TBH 200,000 deductible/</t>
+    <t xml:space="preserve">THB 100,000 deductible/</t>
   </si>
   <si>
     <t xml:space="preserve">Premier</t>
@@ -412,7 +413,7 @@
     <t xml:space="preserve">Personal Accident covered up to TBH 150,000</t>
   </si>
   <si>
-    <t xml:space="preserve">TBH 300,000 deductible/</t>
+    <t xml:space="preserve">THB 200,000 deductible/</t>
   </si>
   <si>
     <t xml:space="preserve">Premier Plus</t>
@@ -435,6 +436,9 @@
     <t xml:space="preserve">IP covered up to TBH 30,000/ TBH 100,000 lifetime</t>
   </si>
   <si>
+    <t xml:space="preserve">THB 300,000 deductible/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Standard</t>
   </si>
   <si>
@@ -466,6 +470,24 @@
   </si>
   <si>
     <t xml:space="preserve">Covered up to TBH 100,000 per confinement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient_benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient_Consultations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient_Specialists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out-patient_Medicines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scans_Diagnostic_Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIL deductible</t>
   </si>
 </sst>
 </file>
@@ -499,17 +521,12 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -527,6 +544,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -633,27 +656,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -665,7 +684,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,11 +779,11 @@
   </sheetPr>
   <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BK1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BO2" activeCellId="0" sqref="BO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.09"/>
@@ -769,9 +792,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="14.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="51.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="23.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,7 +859,7 @@
       <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -890,14 +913,14 @@
       <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="10"/>
+      <c r="AN1" s="9"/>
       <c r="AO1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AP1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="10"/>
+      <c r="AQ1" s="9"/>
       <c r="AR1" s="4" t="s">
         <v>40</v>
       </c>
@@ -910,7 +933,7 @@
       <c r="AU1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="10"/>
+      <c r="AV1" s="9"/>
       <c r="AW1" s="4" t="s">
         <v>44</v>
       </c>
@@ -979,7 +1002,7 @@
       <c r="D2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
@@ -989,7 +1012,7 @@
       <c r="H2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="4" t="s">
         <v>68</v>
       </c>
@@ -1008,29 +1031,29 @@
       <c r="O2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="10"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="9"/>
       <c r="Y2" s="4" t="s">
         <v>73</v>
       </c>
@@ -1043,15 +1066,15 @@
       <c r="AB2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="10"/>
+      <c r="AC2" s="9"/>
       <c r="AD2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="11" t="s">
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AH2" s="4" t="s">
@@ -1072,26 +1095,26 @@
       <c r="AM2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AN2" s="10"/>
+      <c r="AN2" s="9"/>
       <c r="AO2" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
       <c r="AS2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AT2" s="15" t="s">
+      <c r="AT2" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
       <c r="AX2" s="4" t="s">
         <v>64</v>
       </c>
@@ -1119,7 +1142,7 @@
       <c r="BF2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BG2" s="15" t="s">
         <v>88</v>
       </c>
       <c r="BH2" s="0" t="s">
@@ -1128,16 +1151,16 @@
       <c r="BI2" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="BJ2" s="10" t="s">
+      <c r="BJ2" s="9" t="s">
         <v>91</v>
       </c>
       <c r="BK2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BL2" s="10" t="s">
+      <c r="BL2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BM2" s="16" t="s">
         <v>92</v>
       </c>
       <c r="BN2" s="0" t="s">
@@ -1157,7 +1180,7 @@
       <c r="D3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="4" t="s">
         <v>66</v>
       </c>
@@ -1167,7 +1190,7 @@
       <c r="H3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="4" t="s">
         <v>68</v>
       </c>
@@ -1186,29 +1209,29 @@
       <c r="O3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="9"/>
       <c r="Y3" s="4" t="s">
         <v>96</v>
       </c>
@@ -1221,15 +1244,15 @@
       <c r="AB3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC3" s="10"/>
+      <c r="AC3" s="9"/>
       <c r="AD3" s="4" t="s">
         <v>76</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="11" t="s">
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AH3" s="4" t="s">
@@ -1250,26 +1273,26 @@
       <c r="AM3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AN3" s="10"/>
+      <c r="AN3" s="9"/>
       <c r="AO3" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AP3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
       <c r="AS3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AT3" s="15" t="s">
+      <c r="AT3" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AU3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
       <c r="AX3" s="4" t="s">
         <v>64</v>
       </c>
@@ -1294,14 +1317,14 @@
       <c r="BE3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BK3" s="10" t="s">
+      <c r="BK3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="BM3" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="144.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>102</v>
       </c>
@@ -1314,7 +1337,7 @@
       <c r="D4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="4" t="s">
         <v>66</v>
       </c>
@@ -1324,7 +1347,7 @@
       <c r="H4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="4" t="s">
         <v>68</v>
       </c>
@@ -1343,29 +1366,29 @@
       <c r="O4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="10"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="9"/>
       <c r="Y4" s="4" t="s">
         <v>104</v>
       </c>
@@ -1378,15 +1401,15 @@
       <c r="AB4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC4" s="10"/>
+      <c r="AC4" s="9"/>
       <c r="AD4" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="11" t="s">
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="10" t="s">
         <v>106</v>
       </c>
       <c r="AH4" s="4" t="s">
@@ -1407,26 +1430,26 @@
       <c r="AM4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AN4" s="10"/>
+      <c r="AN4" s="9"/>
       <c r="AO4" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AP4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
       <c r="AS4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AT4" s="15" t="s">
+      <c r="AT4" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AU4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
       <c r="AX4" s="4" t="s">
         <v>64</v>
       </c>
@@ -1450,9 +1473,6 @@
       </c>
       <c r="BE4" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="BK4" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="BM4" s="17" t="s">
         <v>110</v>
@@ -1471,7 +1491,7 @@
       <c r="D5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="4" t="s">
         <v>66</v>
       </c>
@@ -1481,7 +1501,7 @@
       <c r="H5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="4" t="s">
         <v>68</v>
       </c>
@@ -1500,29 +1520,29 @@
       <c r="O5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" s="10"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" s="9"/>
       <c r="Y5" s="4" t="s">
         <v>114</v>
       </c>
@@ -1535,15 +1555,15 @@
       <c r="AB5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC5" s="10"/>
+      <c r="AC5" s="9"/>
       <c r="AD5" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="11" t="s">
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="10" t="s">
         <v>106</v>
       </c>
       <c r="AH5" s="4" t="s">
@@ -1564,26 +1584,26 @@
       <c r="AM5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AN5" s="10"/>
+      <c r="AN5" s="9"/>
       <c r="AO5" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AP5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
       <c r="AS5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AT5" s="15" t="s">
+      <c r="AT5" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AU5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
       <c r="AX5" s="4" t="s">
         <v>64</v>
       </c>
@@ -1607,9 +1627,6 @@
       </c>
       <c r="BE5" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="BK5" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="BM5" s="17" t="s">
         <v>116</v>
@@ -1628,7 +1645,7 @@
       <c r="D6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="4" t="s">
         <v>66</v>
       </c>
@@ -1638,7 +1655,7 @@
       <c r="H6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="4" t="s">
         <v>68</v>
       </c>
@@ -1657,29 +1674,29 @@
       <c r="O6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" s="10"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" s="9"/>
       <c r="Y6" s="4" t="s">
         <v>72</v>
       </c>
@@ -1692,15 +1709,15 @@
       <c r="AB6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC6" s="10"/>
+      <c r="AC6" s="9"/>
       <c r="AD6" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="11" t="s">
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="10" t="s">
         <v>123</v>
       </c>
       <c r="AH6" s="4" t="s">
@@ -1721,26 +1738,26 @@
       <c r="AM6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AN6" s="10"/>
+      <c r="AN6" s="9"/>
       <c r="AO6" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AP6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
       <c r="AS6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AT6" s="15" t="s">
+      <c r="AT6" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AU6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
       <c r="AX6" s="4" t="s">
         <v>64</v>
       </c>
@@ -1765,14 +1782,11 @@
       <c r="BE6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BK6" s="18" t="s">
-        <v>17</v>
-      </c>
       <c r="BM6" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="144.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>127</v>
       </c>
@@ -1785,7 +1799,7 @@
       <c r="D7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="4" t="s">
         <v>66</v>
       </c>
@@ -1795,7 +1809,7 @@
       <c r="H7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="4" t="s">
         <v>68</v>
       </c>
@@ -1814,29 +1828,29 @@
       <c r="O7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" s="10"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" s="9"/>
       <c r="Y7" s="4" t="s">
         <v>130</v>
       </c>
@@ -1849,15 +1863,15 @@
       <c r="AB7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC7" s="10"/>
+      <c r="AC7" s="9"/>
       <c r="AD7" s="4" t="s">
         <v>122</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="11" t="s">
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="10" t="s">
         <v>123</v>
       </c>
       <c r="AH7" s="4" t="s">
@@ -1878,26 +1892,26 @@
       <c r="AM7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AN7" s="10"/>
+      <c r="AN7" s="9"/>
       <c r="AO7" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AP7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
       <c r="AS7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AT7" s="15" t="s">
+      <c r="AT7" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AU7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
       <c r="AX7" s="4" t="s">
         <v>64</v>
       </c>
@@ -1922,16 +1936,16 @@
       <c r="BE7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BK7" s="18" t="s">
-        <v>18</v>
+      <c r="BM7" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="144.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>64</v>
@@ -1939,7 +1953,7 @@
       <c r="D8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="4" t="s">
         <v>66</v>
       </c>
@@ -1949,12 +1963,12 @@
       <c r="H8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>131</v>
@@ -1968,29 +1982,29 @@
       <c r="O8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="X8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" s="9"/>
       <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
@@ -2003,14 +2017,14 @@
       <c r="AB8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC8" s="10"/>
+      <c r="AC8" s="9"/>
       <c r="AD8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AE8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AF8" s="10"/>
+      <c r="AF8" s="9"/>
       <c r="AG8" s="4" t="s">
         <v>72</v>
       </c>
@@ -2030,28 +2044,28 @@
         <v>80</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN8" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="AN8" s="9"/>
       <c r="AO8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AP8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="15" t="s">
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AT8" s="15" t="s">
+      <c r="AT8" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AU8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
       <c r="AX8" s="4" t="s">
         <v>64</v>
       </c>
@@ -2076,16 +2090,13 @@
       <c r="BE8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BK8" s="19" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="9" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="144.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>64</v>
@@ -2093,7 +2104,7 @@
       <c r="D9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="4" t="s">
         <v>66</v>
       </c>
@@ -2103,12 +2114,12 @@
       <c r="H9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>75</v>
@@ -2120,31 +2131,31 @@
         <v>70</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" s="10"/>
+        <v>141</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="9"/>
       <c r="Y9" s="4" t="s">
         <v>72</v>
       </c>
@@ -2157,14 +2168,14 @@
       <c r="AB9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC9" s="10"/>
+      <c r="AC9" s="9"/>
       <c r="AD9" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AE9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AF9" s="10"/>
+      <c r="AF9" s="9"/>
       <c r="AG9" s="4" t="s">
         <v>72</v>
       </c>
@@ -2184,28 +2195,28 @@
         <v>80</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN9" s="10"/>
+        <v>137</v>
+      </c>
+      <c r="AN9" s="9"/>
       <c r="AO9" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AP9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="15" t="s">
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AT9" s="15" t="s">
+      <c r="AT9" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AU9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
       <c r="AX9" s="4" t="s">
         <v>64</v>
       </c>
@@ -2229,17 +2240,14 @@
       </c>
       <c r="BE9" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="BK9" s="18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>64</v>
@@ -2247,7 +2255,7 @@
       <c r="D10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="4" t="s">
         <v>66</v>
       </c>
@@ -2257,15 +2265,15 @@
       <c r="H10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>70</v>
@@ -2276,29 +2284,29 @@
       <c r="O10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="X10" s="10"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="X10" s="9"/>
       <c r="Y10" s="4" t="s">
         <v>72</v>
       </c>
@@ -2311,14 +2319,14 @@
       <c r="AB10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC10" s="10"/>
+      <c r="AC10" s="9"/>
       <c r="AD10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AE10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AF10" s="10"/>
+      <c r="AF10" s="9"/>
       <c r="AG10" s="4" t="s">
         <v>72</v>
       </c>
@@ -2340,26 +2348,26 @@
       <c r="AM10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AN10" s="10"/>
+      <c r="AN10" s="9"/>
       <c r="AO10" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AP10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="15" t="s">
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AT10" s="15" t="s">
+      <c r="AT10" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AU10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
       <c r="AX10" s="4" t="s">
         <v>64</v>
       </c>
@@ -2394,4 +2402,88 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>